--- a/Hasil dan Pembahasan(AutoRecovered).xlsx
+++ b/Hasil dan Pembahasan(AutoRecovered).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\TUGAS KULIAH\Semester 8\SKRIPSI\Penulisan_FIX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C47683DD-DC07-40B4-A5F7-4846D7C5CA75}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E37862E5-7F88-4731-9350-9EC5781A68CD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10380" yWindow="2910" windowWidth="20490" windowHeight="6120" activeTab="1" xr2:uid="{7F871390-F7D9-4081-8565-97DB992B31E9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{7F871390-F7D9-4081-8565-97DB992B31E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -413,6 +413,49 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -422,71 +465,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -837,20 +837,20 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
       <c r="G3" s="4"/>
       <c r="I3" s="6" t="s">
         <v>3</v>
@@ -878,9 +878,9 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
       <c r="D4" s="6" t="s">
         <v>25</v>
       </c>
@@ -1799,63 +1799,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="21" t="s">
+      <c r="G2" s="30"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="21" t="s">
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="14"/>
-      <c r="N2" s="15"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="29"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
       <c r="F3" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="22" t="s">
+      <c r="H3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="13" t="s">
         <v>7</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" s="22" t="s">
+      <c r="K3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="13" t="s">
         <v>7</v>
       </c>
       <c r="M3" s="7" t="s">
@@ -1866,177 +1866,177 @@
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="18">
+      <c r="B4" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="10">
         <v>4</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="8">
         <v>1</v>
       </c>
-      <c r="H4" s="20">
-        <v>0</v>
-      </c>
-      <c r="I4" s="23">
+      <c r="H4" s="12">
+        <v>0</v>
+      </c>
+      <c r="I4" s="14">
         <v>4</v>
       </c>
-      <c r="J4" s="12">
+      <c r="J4" s="8">
         <v>1</v>
       </c>
-      <c r="K4" s="20">
-        <v>0</v>
-      </c>
-      <c r="L4" s="23">
+      <c r="K4" s="12">
+        <v>0</v>
+      </c>
+      <c r="L4" s="14">
         <v>5</v>
       </c>
-      <c r="M4" s="12">
-        <v>0</v>
-      </c>
-      <c r="N4" s="12">
+      <c r="M4" s="8">
+        <v>0</v>
+      </c>
+      <c r="N4" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12">
-        <v>0</v>
-      </c>
-      <c r="G5" s="18">
+      <c r="B5" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="8">
+        <v>0</v>
+      </c>
+      <c r="G5" s="10">
         <v>5</v>
       </c>
-      <c r="H5" s="20">
-        <v>0</v>
-      </c>
-      <c r="I5" s="24">
-        <v>0</v>
-      </c>
-      <c r="J5" s="18">
+      <c r="H5" s="12">
+        <v>0</v>
+      </c>
+      <c r="I5" s="15">
+        <v>0</v>
+      </c>
+      <c r="J5" s="10">
         <v>5</v>
       </c>
-      <c r="K5" s="20">
-        <v>0</v>
-      </c>
-      <c r="L5" s="24">
-        <v>0</v>
-      </c>
-      <c r="M5" s="18">
+      <c r="K5" s="12">
+        <v>0</v>
+      </c>
+      <c r="L5" s="15">
+        <v>0</v>
+      </c>
+      <c r="M5" s="10">
         <v>5</v>
       </c>
-      <c r="N5" s="12">
+      <c r="N5" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="25">
-        <v>0</v>
-      </c>
-      <c r="G6" s="25">
-        <v>0</v>
-      </c>
-      <c r="H6" s="26">
+      <c r="B6" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="16">
+        <v>0</v>
+      </c>
+      <c r="G6" s="16">
+        <v>0</v>
+      </c>
+      <c r="H6" s="17">
         <v>5</v>
       </c>
-      <c r="I6" s="27">
-        <v>0</v>
-      </c>
-      <c r="J6" s="25">
-        <v>0</v>
-      </c>
-      <c r="K6" s="26">
+      <c r="I6" s="18">
+        <v>0</v>
+      </c>
+      <c r="J6" s="16">
+        <v>0</v>
+      </c>
+      <c r="K6" s="17">
         <v>5</v>
       </c>
-      <c r="L6" s="27">
-        <v>0</v>
-      </c>
-      <c r="M6" s="25">
-        <v>0</v>
-      </c>
-      <c r="N6" s="28">
+      <c r="L6" s="18">
+        <v>0</v>
+      </c>
+      <c r="M6" s="16">
+        <v>0</v>
+      </c>
+      <c r="N6" s="19">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="2:14" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>

--- a/Hasil dan Pembahasan(AutoRecovered).xlsx
+++ b/Hasil dan Pembahasan(AutoRecovered).xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\TUGAS KULIAH\Semester 8\SKRIPSI\Penulisan_FIX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E37862E5-7F88-4731-9350-9EC5781A68CD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3852513-98F7-4B9E-ADA9-077AF8214CF6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{7F871390-F7D9-4081-8565-97DB992B31E9}"/>
+    <workbookView xWindow="7440" yWindow="4680" windowWidth="20490" windowHeight="6120" activeTab="1" xr2:uid="{7F871390-F7D9-4081-8565-97DB992B31E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Evaluasi" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -183,7 +182,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -349,34 +348,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -392,7 +363,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -447,15 +418,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -483,11 +445,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -837,20 +811,20 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
       <c r="G3" s="4"/>
       <c r="I3" s="6" t="s">
         <v>3</v>
@@ -878,9 +852,9 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
       <c r="D4" s="6" t="s">
         <v>25</v>
       </c>
@@ -1787,7 +1761,7 @@
   <dimension ref="B1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1810,33 +1784,33 @@
       <c r="N1" s="9"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30" t="s">
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="30"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="27" t="s">
+      <c r="G2" s="27"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="27" t="s">
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="28"/>
-      <c r="N2" s="29"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="26"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
       <c r="F3" s="7" t="s">
         <v>7</v>
       </c>
@@ -1866,12 +1840,12 @@
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
+      <c r="B4" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
       <c r="F4" s="10">
         <v>4</v>
       </c>
@@ -1901,12 +1875,12 @@
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
+      <c r="B5" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
       <c r="F5" s="8">
         <v>0</v>
       </c>
@@ -1936,12 +1910,12 @@
       </c>
     </row>
     <row r="6" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
+      <c r="B6" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
       <c r="F6" s="16">
         <v>0</v>
       </c>
@@ -1971,63 +1945,138 @@
       </c>
     </row>
     <row r="7" spans="2:14" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="31">
+        <f>F4/5</f>
+        <v>0.8</v>
+      </c>
+      <c r="G7" s="31">
+        <f>G5/5</f>
+        <v>1</v>
+      </c>
+      <c r="H7" s="31">
+        <f>H6/5</f>
+        <v>1</v>
+      </c>
+      <c r="I7" s="31">
+        <f>I4/5</f>
+        <v>0.8</v>
+      </c>
+      <c r="J7" s="31">
+        <f>J5/5</f>
+        <v>1</v>
+      </c>
+      <c r="K7" s="31">
+        <f>K6/5</f>
+        <v>1</v>
+      </c>
+      <c r="L7" s="31">
+        <f>L4/5</f>
+        <v>1</v>
+      </c>
+      <c r="M7" s="31">
+        <f>M5/5</f>
+        <v>1</v>
+      </c>
+      <c r="N7" s="31">
+        <f>N6/5</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="32">
+        <f>F4/4</f>
+        <v>1</v>
+      </c>
+      <c r="G8" s="32">
+        <f>5/6</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="H8" s="33">
+        <f>5/5</f>
+        <v>1</v>
+      </c>
+      <c r="I8" s="32">
+        <f>I4/4</f>
+        <v>1</v>
+      </c>
+      <c r="J8" s="32">
+        <f>5/6</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="K8" s="33">
+        <f>5/5</f>
+        <v>1</v>
+      </c>
+      <c r="L8" s="34">
+        <v>1</v>
+      </c>
+      <c r="M8" s="32">
+        <v>1</v>
+      </c>
+      <c r="N8" s="32">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="32">
+        <f>2*((F7*F8)/(F7+F8))</f>
+        <v>0.88888888888888895</v>
+      </c>
+      <c r="G9" s="32">
+        <f t="shared" ref="G9:H9" si="0">2*((G7*G8)/(G7+G8))</f>
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="H9" s="32">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I9" s="32">
+        <f>2*((I7*I8)/(I7+I8))</f>
+        <v>0.88888888888888895</v>
+      </c>
+      <c r="J9" s="32">
+        <f t="shared" ref="J9" si="1">2*((J7*J8)/(J7+J8))</f>
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="K9" s="32">
+        <f t="shared" ref="K9" si="2">2*((K7*K8)/(K7+K8))</f>
+        <v>1</v>
+      </c>
+      <c r="L9" s="34">
+        <v>1</v>
+      </c>
+      <c r="M9" s="32">
+        <v>1</v>
+      </c>
+      <c r="N9" s="32">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="12"/>
